--- a/webapp/mockdata/package_upload_template.xlsx
+++ b/webapp/mockdata/package_upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/florin_posea_sap_com/Documents/Documents/UMR/1. bulk upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/florin_posea_sap_com/Documents/Documents/JS/projects/spreadsheet-import/webapp/mockdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7FFFE3B9-95FA-46F1-90BA-C00E524DCFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2A8B3E-829C-4CCD-B42F-D5321F45B00E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{7FFFE3B9-95FA-46F1-90BA-C00E524DCFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A88D4C-8C4F-4E84-8C47-A1018C92E8B9}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="20652" windowHeight="11244" xr2:uid="{E6689CDC-1757-47CF-AE87-BDB7B671C633}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>TECHNICAL_NAME</t>
   </si>
@@ -96,13 +96,46 @@
   </si>
   <si>
     <t>SAP_BAC_L4_BO_COD_PSP_SLAYOUT_GSETTINGS</t>
+  </si>
+  <si>
+    <t>MIHAI_TEST_UPLOAD_4</t>
+  </si>
+  <si>
+    <t>TEST PACKAGE 4</t>
+  </si>
+  <si>
+    <t>MIHAI_TEST_UPLOAD_5</t>
+  </si>
+  <si>
+    <t>TEST PACKAGE 5</t>
+  </si>
+  <si>
+    <t>MIHAI_TEST_UPLOAD_6</t>
+  </si>
+  <si>
+    <t>TEST PACKAGE 6</t>
+  </si>
+  <si>
+    <t>MIHAI_TEST_UPLOAD_7</t>
+  </si>
+  <si>
+    <t>TEST PACKAGE 7</t>
+  </si>
+  <si>
+    <t>MIHAI_TEST_UPLOAD_8</t>
+  </si>
+  <si>
+    <t>TEST PACKAGE 8</t>
+  </si>
+  <si>
+    <t>SCOPEITEMCATEGORY_L2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +176,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF3B3B3B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,10 +251,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09AD345-3F70-4AAC-8D05-7427713A24A6}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -622,21 +657,120 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -654,6 +788,7 @@
       <c r="A14" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
